--- a/data/trans_camb/P53_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P53_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,59</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 10,25</t>
+          <t>-5,79; 8,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 12,51</t>
+          <t>-5,13; 19,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 16,38</t>
+          <t>-5,19; 24,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 7,5</t>
+          <t>-8,16; 5,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 11,53</t>
+          <t>-6,17; 9,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 12,51</t>
+          <t>-4,62; 11,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 6,4</t>
+          <t>-4,31; 13,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 8,73</t>
+          <t>-13,42; 1,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 11,25</t>
+          <t>-3,99; 6,78</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 11,48</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 14,14</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,65; 2,01</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>-11,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>-34,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28,84%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-26,3%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 84,61</t>
+          <t>-41,6; 116,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,36; 95,52</t>
+          <t>-47,76; 308,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 128,87</t>
+          <t>-48,56; 403,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 51,37</t>
+          <t>-59,64; 78,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 76,24</t>
+          <t>-30,32; 80,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 85,04</t>
+          <t>-25,68; 85,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 45,13</t>
+          <t>-21,72; 99,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 62,39</t>
+          <t>-63,31; 17,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 78,1</t>
+          <t>-25,4; 63,05</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-18,73; 94,11</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-17,2; 121,85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-53,3; 19,53</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 20,9</t>
+          <t>-8,83; 14,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 14,42</t>
+          <t>-9,99; 11,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 16,44</t>
+          <t>-9,88; 12,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 7,23</t>
+          <t>-15,14; 4,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 8,02</t>
+          <t>-9,12; 10,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 11,78</t>
+          <t>-9,39; 10,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 10,67</t>
+          <t>-8,49; 11,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 7,81</t>
+          <t>-6,03; 22,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 10,6</t>
+          <t>-6,09; 8,89</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 8,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 8,67</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 9,61</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>-33,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 168,6</t>
+          <t>-45,68; 128,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 124,5</t>
+          <t>-52,84; 122,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 146,15</t>
+          <t>-49,16; 122,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 31,36</t>
+          <t>-70,57; 52,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 35,67</t>
+          <t>-35,64; 65,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 51,99</t>
+          <t>-39,25; 60,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 57,17</t>
+          <t>-34,93; 74,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 43,84</t>
+          <t>-27,86; 138,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 57,84</t>
+          <t>-29,33; 63,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-31,33; 62,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-25,53; 63,81</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-37,23; 66,66</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-7,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,36; 26,88</t>
+          <t>-36,39; 38,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 21,36</t>
+          <t>-36,61; 36,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 27,05</t>
+          <t>-35,05; 41,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 19,99</t>
+          <t>-45,27; 41,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 20,12</t>
+          <t>-19,93; 24,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 21,72</t>
+          <t>-22,57; 20,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 16,12</t>
+          <t>-22,4; 22,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 14,15</t>
+          <t>-28,07; 14,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 17,05</t>
+          <t>-24,79; 27,06</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-25,28; 24,65</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-22,85; 25,07</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-29,98; 19,26</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>-10,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>-5,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>-31,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-1,5%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-20,2%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,12; 123,33</t>
+          <t>-70,46; 158,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 98,4</t>
+          <t>-68,99; 146,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 118,87</t>
+          <t>-67,28; 158,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,57; 86,65</t>
+          <t>-80,76; 180,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 84,59</t>
+          <t>-49,95; 170,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 88,73</t>
+          <t>-59,98; 141,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,45; 63,4</t>
+          <t>-58,04; 171,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,5; 49,09</t>
+          <t>-74,56; 131,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 61,17</t>
+          <t>-53,29; 110,26</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-52,0; 95,92</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-51,21; 95,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-67,23; 91,32</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 11,6</t>
+          <t>-7,3; 10,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 8,56</t>
+          <t>-7,21; 11,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 12,12</t>
+          <t>-7,66; 13,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,81</t>
+          <t>-11,83; 6,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,85</t>
+          <t>-4,28; 7,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,48</t>
+          <t>-4,56; 7,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,32</t>
+          <t>-3,43; 8,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,25</t>
+          <t>-8,02; 6,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 8,85</t>
+          <t>-3,82; 6,35</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 6,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 8,64</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 3,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>-9,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 72,23</t>
+          <t>-37,06; 78,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 53,91</t>
+          <t>-37,96; 81,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 75,74</t>
+          <t>-38,78; 99,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 29,9</t>
+          <t>-55,35; 51,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 39,79</t>
+          <t>-20,17; 47,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 48,78</t>
+          <t>-21,18; 43,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 34,6</t>
+          <t>-15,94; 51,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 32,72</t>
+          <t>-37,46; 41,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 47,66</t>
+          <t>-19,38; 40,59</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-19,4; 45,09</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-13,54; 53,39</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-39,32; 24,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
